--- a/data/trans_dic/P8_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,94</t>
+          <t>8,59; 14,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 16,93</t>
+          <t>9,72; 16,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,43; 15,19</t>
+          <t>8,61; 14,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 10,99</t>
+          <t>6,59; 10,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>11,9; 20,15</t>
+          <t>12,13; 20,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,29; 16,23</t>
+          <t>8,65; 15,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,36</t>
+          <t>8,12; 15,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,63; 14,12</t>
+          <t>9,58; 14,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,95; 15,76</t>
+          <t>10,53; 15,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 15,51</t>
+          <t>10,28; 15,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,31</t>
+          <t>9,07; 14,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,55; 11,89</t>
+          <t>8,47; 12,04</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,16</t>
+          <t>5,94; 12,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 14,69</t>
+          <t>7,94; 14,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 14,16</t>
+          <t>7,85; 14,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 14,48</t>
+          <t>8,79; 14,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 11,18</t>
+          <t>5,51; 11,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 14,74</t>
+          <t>8,03; 15,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 16,06</t>
+          <t>8,78; 16,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 17,53</t>
+          <t>11,82; 17,33</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,64</t>
+          <t>6,53; 10,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,87; 13,82</t>
+          <t>8,7; 13,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 13,98</t>
+          <t>9,1; 14,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 15,23</t>
+          <t>11,03; 15,03</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,39; 15,9</t>
+          <t>10,38; 15,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>15,32; 22,07</t>
+          <t>15,43; 22,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,86; 19,03</t>
+          <t>12,51; 18,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,03; 79,25</t>
+          <t>16,62; 81,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 31,29</t>
+          <t>17,21; 30,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>21,62; 32,33</t>
+          <t>21,71; 33,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,56; 34,18</t>
+          <t>19,39; 34,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 32,19</t>
+          <t>22,05; 32,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,44</t>
+          <t>12,73; 18,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,87; 23,88</t>
+          <t>18,06; 24,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 21,76</t>
+          <t>15,47; 21,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 76,92</t>
+          <t>18,95; 76,0</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,07</t>
+          <t>16,67; 20,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,37; 21,12</t>
+          <t>16,39; 21,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 18,91</t>
+          <t>14,53; 18,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,59</t>
+          <t>16,94; 21,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,17; 23,19</t>
+          <t>17,01; 22,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,41; 19,15</t>
+          <t>13,5; 18,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 17,89</t>
+          <t>13,13; 18,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 16,79</t>
+          <t>6,31; 16,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 21,04</t>
+          <t>17,69; 21,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 19,43</t>
+          <t>15,63; 19,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 17,65</t>
+          <t>14,47; 17,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,49; 18,78</t>
+          <t>11,54; 18,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 19,89</t>
+          <t>12,54; 20,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 21,05</t>
+          <t>14,15; 20,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,55; 24,03</t>
+          <t>17,12; 24,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,95</t>
+          <t>17,12; 24,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,66</t>
+          <t>17,45; 24,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,65; 36,84</t>
+          <t>29,47; 36,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>24,83; 31,73</t>
+          <t>25,45; 32,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,8; 30,83</t>
+          <t>18,96; 30,89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,61; 21,77</t>
+          <t>16,24; 21,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>24,27; 29,26</t>
+          <t>24,16; 29,41</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>22,29; 27,36</t>
+          <t>22,23; 27,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,51; 27,64</t>
+          <t>20,4; 27,65</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,86; 5,8</t>
+          <t>1,82; 6,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,18; 7,07</t>
+          <t>1,95; 6,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,44</t>
+          <t>0,74; 4,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,92</t>
+          <t>1,06; 4,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>29,87; 34,77</t>
+          <t>29,66; 35,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>32,34; 38,67</t>
+          <t>32,4; 38,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,9; 33,9</t>
+          <t>28,11; 34,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,43; 36,08</t>
+          <t>29,96; 35,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 29,02</t>
+          <t>24,47; 29,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,76</t>
+          <t>26,79; 31,95</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,6; 27,75</t>
+          <t>22,35; 27,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 28,14</t>
+          <t>23,46; 28,36</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,74; 15,1</t>
+          <t>12,85; 15,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,29; 16,88</t>
+          <t>14,16; 16,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,31; 15,81</t>
+          <t>13,4; 15,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,79; 40,6</t>
+          <t>14,86; 39,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,83; 24,8</t>
+          <t>21,78; 24,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,25; 27,13</t>
+          <t>24,09; 27,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>21,18; 24,26</t>
+          <t>21,26; 24,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 23,12</t>
+          <t>17,29; 23,08</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,63; 19,65</t>
+          <t>17,7; 19,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>19,76; 21,72</t>
+          <t>19,67; 21,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 19,81</t>
+          <t>17,68; 19,63</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,96; 30,17</t>
+          <t>17,86; 32,25</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a subir varios pisos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53828</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>56812</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>48867</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43139</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48754</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>37093</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39871</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>52694</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>102582</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>93904</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>88738</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>95833</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>40693; 69708</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>42489; 73644</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>36964; 63707</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33262; 54752</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37197; 63189</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27211; 49738</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28166; 55466</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>42883; 64945</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82189; 121619</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>77291; 116229</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70429; 109192</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80619; 114596</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>31778</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>45691</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>39764</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>52342</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>37774</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45111</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>55571</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61734</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>83466</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84875</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>107912</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>21804; 45291</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33018; 60795</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>29602; 54618</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>39742; 64414</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>20492; 42589</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>27143; 51203</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32697; 61086</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45222; 66295</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>48228; 78741</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>65605; 104499</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>68208; 107031</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>92079; 125494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>69940</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>115993</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>81229</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>317626</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39593</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>69696</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44259</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>44696</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>109533</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>185688</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>125488</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>362323</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>56315; 86083</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>96962; 138539</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>65296; 97089</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>111054; 543760</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>28883; 51257</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>56476; 87732</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32218; 56847</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>36807; 54897</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>90402; 129002</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>160433; 214245</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>106441; 147831</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>158280; 634762</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>232982</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>215364</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>189348</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>199686</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>142987</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>122058</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>126813</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>125420</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>375968</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>337422</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>316161</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>325107</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>206467; 259095</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>189977; 245537</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>167058; 216446</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>175342; 227180</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>121528; 163062</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>103525; 145539</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>108403; 149440</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61704; 163750</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>345408; 410193</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>301033; 371142</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>285822; 349510</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>232302; 373157</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>573</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>56593</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>88186</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>126427</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>99873</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>118141</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>252574</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>209161</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>225868</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>174734</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>340760</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>335588</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>325741</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>43957; 70594</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>72267; 105861</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>106240; 149079</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>81318; 117372</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>99246; 138300</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>224435; 279663</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>187909; 236476</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>159546; 259893</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>149254; 197942</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>307299; 374109</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>302095; 367258</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>268520; 363952</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10296</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10717</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6346</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5731</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>405093</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>392402</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>336948</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>251751</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>415389</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>403120</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>343294</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>257481</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5420; 18082</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>5198; 18623</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2137; 12856</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2547; 11278</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>370393; 438822</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>359112; 422801</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>304165; 370445</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>227942; 271721</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>378596; 449579</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>368397; 439397</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>306033; 379975</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>234930; 284012</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1445</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1224</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1182</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2056</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>455416</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>532763</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>491981</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>718397</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>784524</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>911596</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>802164</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>756000</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1239941</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1444359</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1294145</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1474397</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>420192; 498256</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>484117; 576433</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>453626; 534574</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>501677; 1323120</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>735678; 834466</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>855023; 965690</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>750830; 855655</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>618370; 825742</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1176420; 1303031</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1370480; 1514082</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1223042; 1358061</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1241521; 2242448</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P8_2_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
